--- a/biology/Microbiologie/Uronema_(cilié)/Uronema_(cilié).xlsx
+++ b/biology/Microbiologie/Uronema_(cilié)/Uronema_(cilié).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Uronema_(cili%C3%A9)</t>
+          <t>Uronema_(cilié)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uronema est un genre de Ciliés de la famille des Uronematidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uronema_(cili%C3%A9)</t>
+          <t>Uronema_(cilié)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (13 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (13 octobre 2023) :
 Uronema acuminata Kahl, 1926
 Uronema acutum Buddenbrock, 1920
 Uronema antarcticum (Thompson, 1972) Petz, Song &amp; Wilbert, 1995
@@ -526,7 +540,7 @@
 Uronema nigricans (O. F. Müller, 1786) Florentin, 1901
 Uronema paramarinum Petz, Song &amp; Wilbert, 1995
 Uronema pluricaudatum Noland, 1937
-Selon GBIF       (13 octobre 2023)[2] :
+Selon GBIF       (13 octobre 2023) :
 Uronema acuminata Kahl, 1926
 Uronema acutum Buddenbrock, 1920
 Uronema antarcticum (Thompson, 1972) Petz, Song &amp; Wilbert, 1995
@@ -567,7 +581,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Uronema_(cili%C3%A9)</t>
+          <t>Uronema_(cilié)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,9 +599,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uronema Dujardin, 1841[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uronema Dujardin, 1841.
 </t>
         </is>
       </c>
@@ -598,7 +614,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Uronema_(cili%C3%A9)</t>
+          <t>Uronema_(cilié)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -616,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>F. Dujardin, Histoire Naturelle des Zoophytes. Infusoires, comprenant la physiologie et la classification de ces animaux, et la manière de les étudier à l'aide du microscope, Paris, Librairie Encyclopédique de Roret, 1841 (lire en ligne )</t>
         </is>
